--- a/template/template_slip_gaji.xlsx
+++ b/template/template_slip_gaji.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefkim/Projects/Atoz/atoz_mps/Data Template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefkim/Projects/Atoz/atoz_mps/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FF020A-F943-E543-9AF5-6384BC97CC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37314F1-25A9-D243-B085-370EB2F4B524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{D588B289-D155-46CC-8B9D-BC5422857FDF}"/>
   </bookViews>
@@ -783,10 +783,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M3"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="29"/>
       <c r="D20" s="28"/>
       <c r="E20" s="30"/>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="29"/>
       <c r="D21" s="28"/>
       <c r="E21" s="30"/>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
-      <c r="B22" s="35"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="29"/>
       <c r="D22" s="28"/>
       <c r="E22" s="30"/>
@@ -1133,20 +1133,20 @@
       <c r="H22" s="32"/>
       <c r="I22" s="28"/>
       <c r="J22" s="33"/>
-      <c r="K22" s="32"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="28"/>
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="29"/>
       <c r="D23" s="28"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="33"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
-      <c r="B24" s="35"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="29"/>
       <c r="D24" s="28"/>
       <c r="E24" s="30"/>
@@ -1163,13 +1163,13 @@
       <c r="H24" s="32"/>
       <c r="I24" s="28"/>
       <c r="J24" s="33"/>
-      <c r="K24" s="36"/>
+      <c r="K24" s="28"/>
       <c r="L24" s="28"/>
       <c r="M24" s="34"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
-      <c r="B25" s="35"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="29"/>
       <c r="D25" s="28"/>
       <c r="E25" s="30"/>
@@ -1182,92 +1182,197 @@
       <c r="L25" s="28"/>
       <c r="M25" s="34"/>
     </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="34"/>
+    </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="34"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="34"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="34"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="34"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="34"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G34" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="18" t="s">
+      <c r="H34" s="19"/>
+      <c r="I34" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="11" t="s">
+      <c r="J34" s="16"/>
+      <c r="K34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="L34" s="21"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="17"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="G35" s="13"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="G36" s="14"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="G37" s="14"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G38" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="15" t="s">
+      <c r="H38" s="16"/>
+      <c r="I38" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="24" t="s">
+      <c r="J38" s="16"/>
+      <c r="K38" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="23"/>
+      <c r="L38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/template/template_slip_gaji.xlsx
+++ b/template/template_slip_gaji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefkim/Projects/Atoz/atoz_mps/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37314F1-25A9-D243-B085-370EB2F4B524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326A7C44-2CB3-954E-AC6A-B3185D4D8599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{D588B289-D155-46CC-8B9D-BC5422857FDF}"/>
   </bookViews>
@@ -786,7 +786,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/template/template_slip_gaji.xlsx
+++ b/template/template_slip_gaji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefkim/Projects/Atoz/atoz_mps/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326A7C44-2CB3-954E-AC6A-B3185D4D8599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF6601F-16C0-E246-95AB-5DFD147A7F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{D588B289-D155-46CC-8B9D-BC5422857FDF}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" xr2:uid="{D588B289-D155-46CC-8B9D-BC5422857FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="2" r:id="rId1"/>
@@ -783,10 +783,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
-      <c r="B27" s="35"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="29"/>
       <c r="D27" s="28"/>
       <c r="E27" s="30"/>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
-      <c r="B28" s="35"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="29"/>
       <c r="D28" s="28"/>
       <c r="E28" s="30"/>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
-      <c r="B29" s="35"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="29"/>
       <c r="D29" s="28"/>
       <c r="E29" s="30"/>
@@ -1238,20 +1238,20 @@
       <c r="H29" s="32"/>
       <c r="I29" s="28"/>
       <c r="J29" s="33"/>
-      <c r="K29" s="32"/>
+      <c r="K29" s="28"/>
       <c r="L29" s="28"/>
       <c r="M29" s="34"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
-      <c r="B30" s="35"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="29"/>
       <c r="D30" s="28"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="33"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
-      <c r="B31" s="35"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="29"/>
       <c r="D31" s="28"/>
       <c r="E31" s="30"/>
@@ -1268,13 +1268,13 @@
       <c r="H31" s="32"/>
       <c r="I31" s="28"/>
       <c r="J31" s="33"/>
-      <c r="K31" s="36"/>
+      <c r="K31" s="28"/>
       <c r="L31" s="28"/>
       <c r="M31" s="34"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
-      <c r="B32" s="35"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="29"/>
       <c r="D32" s="28"/>
       <c r="E32" s="30"/>
@@ -1287,92 +1287,242 @@
       <c r="L32" s="28"/>
       <c r="M32" s="34"/>
     </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="34"/>
+    </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="34"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="34"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="34"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="34"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="34"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="34"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="34"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="34"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="34"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G44" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="18" t="s">
+      <c r="H44" s="19"/>
+      <c r="I44" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="11" t="s">
+      <c r="J44" s="16"/>
+      <c r="K44" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L34" s="21"/>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="L44" s="21"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="G45" s="13"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="17"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="G46" s="14"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="G47" s="14"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G48" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="15" t="s">
+      <c r="H48" s="16"/>
+      <c r="I48" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="24" t="s">
+      <c r="J48" s="16"/>
+      <c r="K48" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="23"/>
+      <c r="L48" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/template/template_slip_gaji.xlsx
+++ b/template/template_slip_gaji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefkim/Projects/Atoz/atoz_mps/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF6601F-16C0-E246-95AB-5DFD147A7F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2251D61D-8084-5D44-BDDC-A912BA5CE3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" xr2:uid="{D588B289-D155-46CC-8B9D-BC5422857FDF}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{D588B289-D155-46CC-8B9D-BC5422857FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="2" r:id="rId1"/>
@@ -785,8 +785,8 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:K9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
